--- a/results/tabla_2b_params_raw.xlsx
+++ b/results/tabla_2b_params_raw.xlsx
@@ -453,28 +453,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.1812996729430332</v>
+        <v>0.1350720045666597</v>
       </c>
       <c r="D2">
-        <v>0.04552455186888819</v>
+        <v>0.03123961549284416</v>
       </c>
       <c r="E2">
-        <v>0.7220185605322585</v>
+        <v>0.5840163564700357</v>
       </c>
       <c r="F2">
-        <v>0.01543898999963846</v>
+        <v>0.007363713616200063</v>
       </c>
       <c r="G2">
-        <v>-1.707603965177547</v>
+        <v>-2.001947275572972</v>
       </c>
       <c r="H2">
-        <v>-3.089503497043752</v>
+        <v>-3.466068262253998</v>
       </c>
       <c r="I2">
-        <v>-0.3257044333113415</v>
+        <v>-0.5378262888919463</v>
       </c>
       <c r="J2">
-        <v>0.7050637372760177</v>
+        <v>0.7470142299704615</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -485,28 +485,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>8.511935834427147</v>
+        <v>1.870961071629561</v>
       </c>
       <c r="D3">
-        <v>0.7090526769465857</v>
+        <v>0.1633738049298891</v>
       </c>
       <c r="E3">
-        <v>102.1828899390264</v>
+        <v>21.42629495013261</v>
       </c>
       <c r="F3">
-        <v>0.09125491447430512</v>
+        <v>0.6145531302834675</v>
       </c>
       <c r="G3">
-        <v>2.141469394322185</v>
+        <v>0.6264522408914072</v>
       </c>
       <c r="H3">
-        <v>-0.3438254576830149</v>
+        <v>-1.811714421954242</v>
       </c>
       <c r="I3">
-        <v>4.626764246327386</v>
+        <v>3.064618903737057</v>
       </c>
       <c r="J3">
-        <v>1.26803087791862</v>
+        <v>1.243985441608926</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -517,28 +517,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>2.232957612160321</v>
+        <v>4.59509212160271</v>
       </c>
       <c r="D4">
-        <v>0.706455870916744</v>
+        <v>1.356525151432528</v>
       </c>
       <c r="E4">
-        <v>7.057906803484311</v>
+        <v>15.56541106791673</v>
       </c>
       <c r="F4">
-        <v>0.1712663546463176</v>
+        <v>0.0142930950189545</v>
       </c>
       <c r="G4">
-        <v>0.803326990214941</v>
+        <v>1.52498880383361</v>
       </c>
       <c r="H4">
-        <v>-0.347494540355784</v>
+        <v>0.3049263943622302</v>
       </c>
       <c r="I4">
-        <v>1.954148520785666</v>
+        <v>2.74505121330499</v>
       </c>
       <c r="J4">
-        <v>0.587164631415811</v>
+        <v>0.6224922596002154</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -549,28 +549,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>2.522060671841484</v>
+        <v>4.133872209363799</v>
       </c>
       <c r="D5">
-        <v>0.8135599518632203</v>
+        <v>1.274053406825838</v>
       </c>
       <c r="E5">
-        <v>7.818465028768922</v>
+        <v>13.41301655942777</v>
       </c>
       <c r="F5">
-        <v>0.1090395091609265</v>
+        <v>0.0181138668619021</v>
       </c>
       <c r="G5">
-        <v>0.9250762942880502</v>
+        <v>1.419214548678207</v>
       </c>
       <c r="H5">
-        <v>-0.2063356588329199</v>
+        <v>0.2422034768567585</v>
       </c>
       <c r="I5">
-        <v>2.05648824740902</v>
+        <v>2.596225620499656</v>
       </c>
       <c r="J5">
-        <v>0.5772616038077246</v>
+        <v>0.6005268877926134</v>
       </c>
     </row>
   </sheetData>
